--- a/Code/Results/Cases/Case_4_156/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_156/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.88963544187413</v>
+        <v>15.53426190971729</v>
       </c>
       <c r="C2">
-        <v>22.81097166302633</v>
+        <v>12.42272858807831</v>
       </c>
       <c r="D2">
-        <v>7.361469444186075</v>
+        <v>5.968553232837087</v>
       </c>
       <c r="E2">
-        <v>30.47621258440413</v>
+        <v>16.52896572815041</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.70797572066204</v>
+        <v>34.82032796537018</v>
       </c>
       <c r="H2">
-        <v>12.50965897886686</v>
+        <v>14.64808963408755</v>
       </c>
       <c r="I2">
-        <v>16.92558109804888</v>
+        <v>20.054024083525</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.08963832704479</v>
+        <v>14.78388018740584</v>
       </c>
       <c r="C3">
-        <v>21.19740606069765</v>
+        <v>11.60122308761781</v>
       </c>
       <c r="D3">
-        <v>6.82716043085004</v>
+        <v>5.848011660073984</v>
       </c>
       <c r="E3">
-        <v>28.15093726401357</v>
+        <v>15.5837134517504</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.59920432777721</v>
+        <v>34.02863113231896</v>
       </c>
       <c r="H3">
-        <v>12.02038574317089</v>
+        <v>14.62321074893769</v>
       </c>
       <c r="I3">
-        <v>16.40526975997086</v>
+        <v>20.0672728556703</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.92873073446291</v>
+        <v>14.3061591948401</v>
       </c>
       <c r="C4">
-        <v>20.15978271201201</v>
+        <v>11.09958326520868</v>
       </c>
       <c r="D4">
-        <v>6.483727142327149</v>
+        <v>5.774746439216896</v>
       </c>
       <c r="E4">
-        <v>26.66958778895721</v>
+        <v>14.97905080547837</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.67417942900518</v>
+        <v>33.55240806141679</v>
       </c>
       <c r="H4">
-        <v>11.73267976188238</v>
+        <v>14.61308305399272</v>
       </c>
       <c r="I4">
-        <v>16.1152632602072</v>
+        <v>20.08349520147614</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.44136929277574</v>
+        <v>14.10748008055997</v>
       </c>
       <c r="C5">
-        <v>19.72485344877988</v>
+        <v>10.88880438345576</v>
       </c>
       <c r="D5">
-        <v>6.33981438774494</v>
+        <v>5.745122979709981</v>
       </c>
       <c r="E5">
-        <v>26.05172391502047</v>
+        <v>14.72681139110883</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>40.88580770962378</v>
+        <v>33.36115491904042</v>
       </c>
       <c r="H5">
-        <v>11.61857858186286</v>
+        <v>14.6102455655456</v>
       </c>
       <c r="I5">
-        <v>16.00417208845506</v>
+        <v>20.09212050972133</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.35957313968058</v>
+        <v>14.07425634625698</v>
       </c>
       <c r="C6">
-        <v>19.65189544527461</v>
+        <v>10.85342428068708</v>
       </c>
       <c r="D6">
-        <v>6.315675868701351</v>
+        <v>5.740219391171711</v>
       </c>
       <c r="E6">
-        <v>25.94825081870714</v>
+        <v>14.68458376907187</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40.75467340631119</v>
+        <v>33.32957677312164</v>
       </c>
       <c r="H6">
-        <v>11.59982054607308</v>
+        <v>14.60985212099266</v>
       </c>
       <c r="I6">
-        <v>15.98614405129335</v>
+        <v>20.0936738194254</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92221618084427</v>
+        <v>14.30349556782921</v>
       </c>
       <c r="C7">
-        <v>20.15396642660016</v>
+        <v>11.09676621172561</v>
       </c>
       <c r="D7">
-        <v>6.481802444780037</v>
+        <v>5.774345925453486</v>
       </c>
       <c r="E7">
-        <v>26.66131345621402</v>
+        <v>14.97567224501798</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.66356257158573</v>
+        <v>33.5498169411624</v>
       </c>
       <c r="H7">
-        <v>11.73112829655569</v>
+        <v>14.61303957249589</v>
       </c>
       <c r="I7">
-        <v>16.11373677425368</v>
+        <v>20.08360339490188</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.28038276550956</v>
+        <v>15.27920284607282</v>
       </c>
       <c r="C8">
-        <v>22.26415554862698</v>
+        <v>12.14293145523802</v>
       </c>
       <c r="D8">
-        <v>7.180367574896575</v>
+        <v>5.92686200132132</v>
       </c>
       <c r="E8">
-        <v>29.68512748802366</v>
+        <v>16.20822660877739</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.63945579425928</v>
+        <v>34.54549659249503</v>
       </c>
       <c r="H8">
-        <v>12.33828134850935</v>
+        <v>14.6384404281166</v>
       </c>
       <c r="I8">
-        <v>16.73987060866099</v>
+        <v>20.05690270928379</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.47683938448187</v>
+        <v>17.04804094089212</v>
       </c>
       <c r="C9">
-        <v>26.04559934187358</v>
+        <v>14.04090658862258</v>
       </c>
       <c r="D9">
-        <v>8.433230076112151</v>
+        <v>6.229940523580388</v>
       </c>
       <c r="E9">
-        <v>35.226916458186</v>
+        <v>18.52423419746841</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.41506621071144</v>
+        <v>36.56205376678879</v>
       </c>
       <c r="H9">
-        <v>13.63351834791941</v>
+        <v>14.7292479132541</v>
       </c>
       <c r="I9">
-        <v>18.21605363108001</v>
+        <v>20.06948513428042</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.32180077376157</v>
+        <v>18.24880853026226</v>
       </c>
       <c r="C10">
-        <v>28.63150555340312</v>
+        <v>15.28468413404332</v>
       </c>
       <c r="D10">
-        <v>9.290175844325432</v>
+        <v>6.452520187193766</v>
       </c>
       <c r="E10">
-        <v>39.12464816172925</v>
+        <v>20.18903791592331</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>59.15025871700479</v>
+        <v>38.06373092124111</v>
       </c>
       <c r="H10">
-        <v>14.72903840738782</v>
+        <v>14.82106027004779</v>
       </c>
       <c r="I10">
-        <v>19.47405672738023</v>
+        <v>20.11924866805255</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.57049270031147</v>
+        <v>18.77193702301494</v>
       </c>
       <c r="C11">
-        <v>29.77305926800678</v>
+        <v>15.8181564507246</v>
       </c>
       <c r="D11">
-        <v>9.668324426251411</v>
+        <v>6.553251061043894</v>
       </c>
       <c r="E11">
-        <v>40.8780022621425</v>
+        <v>20.90472012969369</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>61.7586046906233</v>
+        <v>38.74743353645941</v>
       </c>
       <c r="H11">
-        <v>15.36773082817845</v>
+        <v>14.86826687020556</v>
       </c>
       <c r="I11">
-        <v>20.27647021403807</v>
+        <v>20.15084282183847</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.03742563672306</v>
+        <v>18.96660074235519</v>
       </c>
       <c r="C12">
-        <v>30.20104787952241</v>
+        <v>16.01554799009641</v>
       </c>
       <c r="D12">
-        <v>9.81005183770862</v>
+        <v>6.591280558529864</v>
       </c>
       <c r="E12">
-        <v>41.54102775310998</v>
+        <v>21.16978312090025</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>62.7481655268508</v>
+        <v>39.00611897728928</v>
       </c>
       <c r="H12">
-        <v>15.61030111455029</v>
+        <v>14.88692164183589</v>
       </c>
       <c r="I12">
-        <v>20.61166719065875</v>
+        <v>20.16410416687249</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.93711532808646</v>
+        <v>18.92483069932225</v>
       </c>
       <c r="C13">
-        <v>30.10905094084195</v>
+        <v>15.97324138090954</v>
       </c>
       <c r="D13">
-        <v>9.779589874880619</v>
+        <v>6.583095959503771</v>
       </c>
       <c r="E13">
-        <v>41.39823959152865</v>
+        <v>21.11296109862336</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>62.53492752576634</v>
+        <v>38.95042075011318</v>
       </c>
       <c r="H13">
-        <v>15.55801874664335</v>
+        <v>14.88286944746616</v>
       </c>
       <c r="I13">
-        <v>20.53934607521898</v>
+        <v>20.16119027374942</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.60902219419058</v>
+        <v>18.78802150591827</v>
       </c>
       <c r="C14">
-        <v>29.8083516060373</v>
+        <v>15.83448847206953</v>
       </c>
       <c r="D14">
-        <v>9.680012526723772</v>
+        <v>6.556382299151796</v>
       </c>
       <c r="E14">
-        <v>40.93255592678681</v>
+        <v>20.92664605647586</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>61.83996662576897</v>
+        <v>38.76872177717821</v>
       </c>
       <c r="H14">
-        <v>15.38766982534732</v>
+        <v>14.8697860308115</v>
       </c>
       <c r="I14">
-        <v>20.30398953897703</v>
+        <v>20.15190779435038</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.40730529015944</v>
+        <v>18.70377180317484</v>
       </c>
       <c r="C15">
-        <v>29.62362900970262</v>
+        <v>15.74889704547596</v>
       </c>
       <c r="D15">
-        <v>9.618834092609804</v>
+        <v>6.54000326972706</v>
       </c>
       <c r="E15">
-        <v>40.64725402793233</v>
+        <v>20.81174893700022</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>61.41458880877128</v>
+        <v>38.65738887222074</v>
       </c>
       <c r="H15">
-        <v>15.28343493478457</v>
+        <v>14.8618733278702</v>
       </c>
       <c r="I15">
-        <v>20.16019430136632</v>
+        <v>20.14639119906327</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.23933093190672</v>
+        <v>18.21414593846746</v>
       </c>
       <c r="C16">
-        <v>28.55625981253523</v>
+        <v>15.24917215312996</v>
       </c>
       <c r="D16">
-        <v>9.265245037006473</v>
+        <v>6.44592321397618</v>
       </c>
       <c r="E16">
-        <v>39.0098184948226</v>
+        <v>20.14143165930408</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>58.97993711309137</v>
+        <v>38.01903489490483</v>
       </c>
       <c r="H16">
-        <v>14.68736962465717</v>
+        <v>14.81808440688571</v>
       </c>
       <c r="I16">
-        <v>19.43473281426111</v>
+        <v>20.11736499590156</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.5115717311182</v>
+        <v>17.90777266236588</v>
       </c>
       <c r="C17">
-        <v>27.89301588064022</v>
+        <v>14.93434553237988</v>
       </c>
       <c r="D17">
-        <v>9.045476195679546</v>
+        <v>6.3880453243446</v>
       </c>
       <c r="E17">
-        <v>38.00147629650753</v>
+        <v>19.71957458409835</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>57.4874031319267</v>
+        <v>37.62735463482127</v>
       </c>
       <c r="H17">
-        <v>14.35422361073017</v>
+        <v>14.79261267127431</v>
       </c>
       <c r="I17">
-        <v>19.09505746910177</v>
+        <v>20.10185970430567</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.08865838002249</v>
+        <v>17.72938518023917</v>
       </c>
       <c r="C18">
-        <v>27.50821145705574</v>
+        <v>14.75022114628256</v>
       </c>
       <c r="D18">
-        <v>8.917957009971376</v>
+        <v>6.354708650798845</v>
       </c>
       <c r="E18">
-        <v>37.41951034840427</v>
+        <v>19.47301141714143</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>56.62873395720722</v>
+        <v>37.4021423431797</v>
       </c>
       <c r="H18">
-        <v>14.19964862749109</v>
+        <v>14.77847442934638</v>
       </c>
       <c r="I18">
-        <v>18.90375097124945</v>
+        <v>20.09378407209918</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.94470714565244</v>
+        <v>17.66861731532074</v>
       </c>
       <c r="C19">
-        <v>27.37733296603559</v>
+        <v>14.6873561161494</v>
       </c>
       <c r="D19">
-        <v>8.874584068776901</v>
+        <v>6.34341463717925</v>
       </c>
       <c r="E19">
-        <v>37.22207277497797</v>
+        <v>19.38885456889157</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>56.33791834144447</v>
+        <v>37.32591113258987</v>
       </c>
       <c r="H19">
-        <v>14.14760093528003</v>
+        <v>14.77377556072826</v>
       </c>
       <c r="I19">
-        <v>18.83965911345362</v>
+        <v>20.09119419722452</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.58948647171622</v>
+        <v>17.94061204157287</v>
       </c>
       <c r="C20">
-        <v>27.96395865762759</v>
+        <v>14.96817426348869</v>
       </c>
       <c r="D20">
-        <v>9.06898485023728</v>
+        <v>6.394211669700151</v>
       </c>
       <c r="E20">
-        <v>38.10900996480815</v>
+        <v>19.76488763860476</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>57.64629469492319</v>
+        <v>37.66904447117383</v>
       </c>
       <c r="H20">
-        <v>14.38297130818462</v>
+        <v>14.79527116875002</v>
       </c>
       <c r="I20">
-        <v>19.13079155067907</v>
+        <v>20.10342298804605</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.70554619371662</v>
+        <v>18.82829965795709</v>
       </c>
       <c r="C21">
-        <v>29.89678442542228</v>
+        <v>15.87536882145062</v>
       </c>
       <c r="D21">
-        <v>9.70929881097377</v>
+        <v>6.564232180955802</v>
       </c>
       <c r="E21">
-        <v>41.06934637684876</v>
+        <v>20.98153248702633</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>62.04402551879428</v>
+        <v>38.82209940258156</v>
       </c>
       <c r="H21">
-        <v>15.4376817429746</v>
+        <v>14.87360785212799</v>
       </c>
       <c r="I21">
-        <v>20.37304137632696</v>
+        <v>20.15459901052074</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.05439270811539</v>
+        <v>19.38840257596116</v>
       </c>
       <c r="C22">
-        <v>31.13541719424589</v>
+        <v>16.44133937044438</v>
       </c>
       <c r="D22">
-        <v>10.11934520366385</v>
+        <v>6.674662525573936</v>
       </c>
       <c r="E22">
-        <v>42.99990173527499</v>
+        <v>21.74201479648275</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>64.93022318340731</v>
+        <v>39.5742898544899</v>
       </c>
       <c r="H22">
-        <v>16.14565031182056</v>
+        <v>14.92934120714339</v>
       </c>
       <c r="I22">
-        <v>21.35448048775985</v>
+        <v>20.19561010465687</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.33737096207187</v>
+        <v>19.0913315656208</v>
       </c>
       <c r="C23">
-        <v>30.47631028726266</v>
+        <v>16.14172611609272</v>
       </c>
       <c r="D23">
-        <v>9.901187296844103</v>
+        <v>6.615799378781333</v>
       </c>
       <c r="E23">
-        <v>41.96915827721436</v>
+        <v>21.33929036961712</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>63.38791660421737</v>
+        <v>39.17305468610778</v>
       </c>
       <c r="H23">
-        <v>15.76719424564664</v>
+        <v>14.89918186305172</v>
       </c>
       <c r="I23">
-        <v>20.82893551728779</v>
+        <v>20.17302701382899</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.55427532576182</v>
+        <v>17.9257723560033</v>
       </c>
       <c r="C24">
-        <v>27.93189637105756</v>
+        <v>14.95289003405701</v>
       </c>
       <c r="D24">
-        <v>9.058360250748589</v>
+        <v>6.391424054716765</v>
       </c>
       <c r="E24">
-        <v>38.06040116003738</v>
+        <v>19.74441416807204</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>57.57446179974763</v>
+        <v>37.65019656681444</v>
       </c>
       <c r="H24">
-        <v>14.36996931186306</v>
+        <v>14.79406768633027</v>
       </c>
       <c r="I24">
-        <v>19.11462382977627</v>
+        <v>20.10271361625842</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.38524963068599</v>
+        <v>16.58621826143823</v>
       </c>
       <c r="C25">
-        <v>25.05843817023916</v>
+        <v>13.55403441873346</v>
       </c>
       <c r="D25">
-        <v>8.106082968302974</v>
+        <v>6.147788141916061</v>
       </c>
       <c r="E25">
-        <v>33.76343358669271</v>
+        <v>17.8739712882458</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.29242713533338</v>
+        <v>36.01165168786137</v>
       </c>
       <c r="H25">
-        <v>13.27124752060393</v>
+        <v>14.70027621358755</v>
       </c>
       <c r="I25">
-        <v>17.78799534564577</v>
+        <v>20.05902517514695</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_156/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_156/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.53426190971729</v>
+        <v>25.88963544187414</v>
       </c>
       <c r="C2">
-        <v>12.42272858807831</v>
+        <v>22.81097166302638</v>
       </c>
       <c r="D2">
-        <v>5.968553232837087</v>
+        <v>7.361469444186107</v>
       </c>
       <c r="E2">
-        <v>16.52896572815041</v>
+        <v>30.47621258440417</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.82032796537018</v>
+        <v>46.70797572066214</v>
       </c>
       <c r="H2">
-        <v>14.64808963408755</v>
+        <v>12.50965897886687</v>
       </c>
       <c r="I2">
-        <v>20.054024083525</v>
+        <v>16.92558109804889</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.78388018740584</v>
+        <v>24.08963832704489</v>
       </c>
       <c r="C3">
-        <v>11.60122308761781</v>
+        <v>21.19740606069773</v>
       </c>
       <c r="D3">
-        <v>5.848011660073984</v>
+        <v>6.827160430850071</v>
       </c>
       <c r="E3">
-        <v>15.5837134517504</v>
+        <v>28.15093726401373</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.02863113231896</v>
+        <v>43.59920432777728</v>
       </c>
       <c r="H3">
-        <v>14.62321074893769</v>
+        <v>12.02038574317082</v>
       </c>
       <c r="I3">
-        <v>20.0672728556703</v>
+        <v>16.40526975997078</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.3061591948401</v>
+        <v>22.92873073446298</v>
       </c>
       <c r="C4">
-        <v>11.09958326520868</v>
+        <v>20.15978271201217</v>
       </c>
       <c r="D4">
-        <v>5.774746439216896</v>
+        <v>6.483727142327127</v>
       </c>
       <c r="E4">
-        <v>14.97905080547837</v>
+        <v>26.66958778895722</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.55240806141679</v>
+        <v>41.67417942900525</v>
       </c>
       <c r="H4">
-        <v>14.61308305399272</v>
+        <v>11.73267976188237</v>
       </c>
       <c r="I4">
-        <v>20.08349520147614</v>
+        <v>16.11526326020712</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.10748008055997</v>
+        <v>22.44136929277579</v>
       </c>
       <c r="C5">
-        <v>10.88880438345576</v>
+        <v>19.72485344877977</v>
       </c>
       <c r="D5">
-        <v>5.745122979709981</v>
+        <v>6.339814387744938</v>
       </c>
       <c r="E5">
-        <v>14.72681139110883</v>
+        <v>26.0517239150205</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>33.36115491904042</v>
+        <v>40.88580770962393</v>
       </c>
       <c r="H5">
-        <v>14.6102455655456</v>
+        <v>11.6185785818629</v>
       </c>
       <c r="I5">
-        <v>20.09212050972133</v>
+        <v>16.00417208845511</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.07425634625698</v>
+        <v>22.3595731396805</v>
       </c>
       <c r="C6">
-        <v>10.85342428068708</v>
+        <v>19.65189544527465</v>
       </c>
       <c r="D6">
-        <v>5.740219391171711</v>
+        <v>6.315675868701313</v>
       </c>
       <c r="E6">
-        <v>14.68458376907187</v>
+        <v>25.94825081870713</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>33.32957677312164</v>
+        <v>40.75467340631126</v>
       </c>
       <c r="H6">
-        <v>14.60985212099266</v>
+        <v>11.59982054607309</v>
       </c>
       <c r="I6">
-        <v>20.0936738194254</v>
+        <v>15.98614405129343</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.30349556782921</v>
+        <v>22.92221618084438</v>
       </c>
       <c r="C7">
-        <v>11.09676621172561</v>
+        <v>20.15396642660013</v>
       </c>
       <c r="D7">
-        <v>5.774345925453486</v>
+        <v>6.481802444780017</v>
       </c>
       <c r="E7">
-        <v>14.97567224501798</v>
+        <v>26.66131345621401</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.5498169411624</v>
+        <v>41.66356257158569</v>
       </c>
       <c r="H7">
-        <v>14.61303957249589</v>
+        <v>11.73112829655561</v>
       </c>
       <c r="I7">
-        <v>20.08360339490188</v>
+        <v>16.11373677425355</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.27920284607282</v>
+        <v>25.28038276550947</v>
       </c>
       <c r="C8">
-        <v>12.14293145523802</v>
+        <v>22.26415554862697</v>
       </c>
       <c r="D8">
-        <v>5.92686200132132</v>
+        <v>7.180367574896527</v>
       </c>
       <c r="E8">
-        <v>16.20822660877739</v>
+        <v>29.68512748802354</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.54549659249503</v>
+        <v>45.63945579425936</v>
       </c>
       <c r="H8">
-        <v>14.6384404281166</v>
+        <v>12.33828134850937</v>
       </c>
       <c r="I8">
-        <v>20.05690270928379</v>
+        <v>16.73987060866112</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.04804094089212</v>
+        <v>29.47683938448188</v>
       </c>
       <c r="C9">
-        <v>14.04090658862258</v>
+        <v>26.04559934187362</v>
       </c>
       <c r="D9">
-        <v>6.229940523580388</v>
+        <v>8.43323007611211</v>
       </c>
       <c r="E9">
-        <v>18.52423419746841</v>
+        <v>35.22691645818609</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>36.56205376678879</v>
+        <v>53.41506621071155</v>
       </c>
       <c r="H9">
-        <v>14.7292479132541</v>
+        <v>13.63351834791943</v>
       </c>
       <c r="I9">
-        <v>20.06948513428042</v>
+        <v>18.21605363108005</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.24880853026226</v>
+        <v>32.32180077376149</v>
       </c>
       <c r="C10">
-        <v>15.28468413404332</v>
+        <v>28.63150555340322</v>
       </c>
       <c r="D10">
-        <v>6.452520187193766</v>
+        <v>9.290175844325416</v>
       </c>
       <c r="E10">
-        <v>20.18903791592331</v>
+        <v>39.12464816172926</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>38.06373092124111</v>
+        <v>59.15025871700479</v>
       </c>
       <c r="H10">
-        <v>14.82106027004779</v>
+        <v>14.7290384073878</v>
       </c>
       <c r="I10">
-        <v>20.11924866805255</v>
+        <v>19.47405672738023</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.77193702301494</v>
+        <v>33.57049270031165</v>
       </c>
       <c r="C11">
-        <v>15.8181564507246</v>
+        <v>29.77305926800681</v>
       </c>
       <c r="D11">
-        <v>6.553251061043894</v>
+        <v>9.668324426251425</v>
       </c>
       <c r="E11">
-        <v>20.90472012969369</v>
+        <v>40.87800226214247</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>38.74743353645941</v>
+        <v>61.75860469062376</v>
       </c>
       <c r="H11">
-        <v>14.86826687020556</v>
+        <v>15.36773082817856</v>
       </c>
       <c r="I11">
-        <v>20.15084282183847</v>
+        <v>20.27647021403827</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.96660074235519</v>
+        <v>34.03742563672291</v>
       </c>
       <c r="C12">
-        <v>16.01554799009641</v>
+        <v>30.20104787952224</v>
       </c>
       <c r="D12">
-        <v>6.591280558529864</v>
+        <v>9.810051837708556</v>
       </c>
       <c r="E12">
-        <v>21.16978312090025</v>
+        <v>41.54102775310987</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>39.00611897728928</v>
+        <v>62.74816552685056</v>
       </c>
       <c r="H12">
-        <v>14.88692164183589</v>
+        <v>15.61030111455027</v>
       </c>
       <c r="I12">
-        <v>20.16410416687249</v>
+        <v>20.61166719065871</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.92483069932225</v>
+        <v>33.93711532808634</v>
       </c>
       <c r="C13">
-        <v>15.97324138090954</v>
+        <v>30.10905094084189</v>
       </c>
       <c r="D13">
-        <v>6.583095959503771</v>
+        <v>9.779589874880608</v>
       </c>
       <c r="E13">
-        <v>21.11296109862336</v>
+        <v>41.39823959152857</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>38.95042075011318</v>
+        <v>62.53492752576616</v>
       </c>
       <c r="H13">
-        <v>14.88286944746616</v>
+        <v>15.5580187466433</v>
       </c>
       <c r="I13">
-        <v>20.16119027374942</v>
+        <v>20.53934607521892</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.78802150591827</v>
+        <v>33.60902219419049</v>
       </c>
       <c r="C14">
-        <v>15.83448847206953</v>
+        <v>29.80835160603724</v>
       </c>
       <c r="D14">
-        <v>6.556382299151796</v>
+        <v>9.680012526723782</v>
       </c>
       <c r="E14">
-        <v>20.92664605647586</v>
+        <v>40.93255592678668</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>38.76872177717821</v>
+        <v>61.83996662576876</v>
       </c>
       <c r="H14">
-        <v>14.8697860308115</v>
+        <v>15.38766982534727</v>
       </c>
       <c r="I14">
-        <v>20.15190779435038</v>
+        <v>20.30398953897695</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.70377180317484</v>
+        <v>33.40730529015951</v>
       </c>
       <c r="C15">
-        <v>15.74889704547596</v>
+        <v>29.62362900970266</v>
       </c>
       <c r="D15">
-        <v>6.54000326972706</v>
+        <v>9.618834092609823</v>
       </c>
       <c r="E15">
-        <v>20.81174893700022</v>
+        <v>40.64725402793241</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.65738887222074</v>
+        <v>61.41458880877141</v>
       </c>
       <c r="H15">
-        <v>14.8618733278702</v>
+        <v>15.28343493478459</v>
       </c>
       <c r="I15">
-        <v>20.14639119906327</v>
+        <v>20.16019430136638</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.21414593846746</v>
+        <v>32.23933093190671</v>
       </c>
       <c r="C16">
-        <v>15.24917215312996</v>
+        <v>28.55625981253526</v>
       </c>
       <c r="D16">
-        <v>6.44592321397618</v>
+        <v>9.265245037006476</v>
       </c>
       <c r="E16">
-        <v>20.14143165930408</v>
+        <v>39.00981849482258</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.01903489490483</v>
+        <v>58.97993711309142</v>
       </c>
       <c r="H16">
-        <v>14.81808440688571</v>
+        <v>14.68736962465717</v>
       </c>
       <c r="I16">
-        <v>20.11736499590156</v>
+        <v>19.43473281426115</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.90777266236588</v>
+        <v>31.51157173111824</v>
       </c>
       <c r="C17">
-        <v>14.93434553237988</v>
+        <v>27.89301588064015</v>
       </c>
       <c r="D17">
-        <v>6.3880453243446</v>
+        <v>9.045476195679605</v>
       </c>
       <c r="E17">
-        <v>19.71957458409835</v>
+        <v>38.00147629650755</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>37.62735463482127</v>
+        <v>57.48740313192692</v>
       </c>
       <c r="H17">
-        <v>14.79261267127431</v>
+        <v>14.35422361073018</v>
       </c>
       <c r="I17">
-        <v>20.10185970430567</v>
+        <v>19.0950574691018</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.72938518023917</v>
+        <v>31.08865838002242</v>
       </c>
       <c r="C18">
-        <v>14.75022114628256</v>
+        <v>27.50821145705587</v>
       </c>
       <c r="D18">
-        <v>6.354708650798845</v>
+        <v>8.917957009971364</v>
       </c>
       <c r="E18">
-        <v>19.47301141714143</v>
+        <v>37.41951034840423</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>37.4021423431797</v>
+        <v>56.62873395720721</v>
       </c>
       <c r="H18">
-        <v>14.77847442934638</v>
+        <v>14.19964862749108</v>
       </c>
       <c r="I18">
-        <v>20.09378407209918</v>
+        <v>18.90375097124944</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.66861731532074</v>
+        <v>30.94470714565236</v>
       </c>
       <c r="C19">
-        <v>14.6873561161494</v>
+        <v>27.37733296603559</v>
       </c>
       <c r="D19">
-        <v>6.34341463717925</v>
+        <v>8.874584068776921</v>
       </c>
       <c r="E19">
-        <v>19.38885456889157</v>
+        <v>37.22207277497788</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>37.32591113258987</v>
+        <v>56.33791834144435</v>
       </c>
       <c r="H19">
-        <v>14.77377556072826</v>
+        <v>14.14760093528005</v>
       </c>
       <c r="I19">
-        <v>20.09119419722452</v>
+        <v>18.83965911345368</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.94061204157287</v>
+        <v>31.58948647171633</v>
       </c>
       <c r="C20">
-        <v>14.96817426348869</v>
+        <v>27.96395865762752</v>
       </c>
       <c r="D20">
-        <v>6.394211669700151</v>
+        <v>9.068984850237305</v>
       </c>
       <c r="E20">
-        <v>19.76488763860476</v>
+        <v>38.10900996480816</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>37.66904447117383</v>
+        <v>57.64629469492337</v>
       </c>
       <c r="H20">
-        <v>14.79527116875002</v>
+        <v>14.38297130818463</v>
       </c>
       <c r="I20">
-        <v>20.10342298804605</v>
+        <v>19.13079155067907</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.82829965795709</v>
+        <v>33.70554619371679</v>
       </c>
       <c r="C21">
-        <v>15.87536882145062</v>
+        <v>29.89678442542249</v>
       </c>
       <c r="D21">
-        <v>6.564232180955802</v>
+        <v>9.709298810973891</v>
       </c>
       <c r="E21">
-        <v>20.98153248702633</v>
+        <v>41.06934637684893</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>38.82209940258156</v>
+        <v>62.04402551879495</v>
       </c>
       <c r="H21">
-        <v>14.87360785212799</v>
+        <v>15.4376817429748</v>
       </c>
       <c r="I21">
-        <v>20.15459901052074</v>
+        <v>20.3730413763273</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.38840257596116</v>
+        <v>35.05439270811542</v>
       </c>
       <c r="C22">
-        <v>16.44133937044438</v>
+        <v>31.13541719424594</v>
       </c>
       <c r="D22">
-        <v>6.674662525573936</v>
+        <v>10.11934520366385</v>
       </c>
       <c r="E22">
-        <v>21.74201479648275</v>
+        <v>42.99990173527497</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>39.5742898544899</v>
+        <v>64.9302231834077</v>
       </c>
       <c r="H22">
-        <v>14.92934120714339</v>
+        <v>16.14565031182064</v>
       </c>
       <c r="I22">
-        <v>20.19561010465687</v>
+        <v>21.35448048776002</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.0913315656208</v>
+        <v>34.33737096207175</v>
       </c>
       <c r="C23">
-        <v>16.14172611609272</v>
+        <v>30.47631028726266</v>
       </c>
       <c r="D23">
-        <v>6.615799378781333</v>
+        <v>9.901187296844085</v>
       </c>
       <c r="E23">
-        <v>21.33929036961712</v>
+        <v>41.96915827721438</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>39.17305468610778</v>
+        <v>63.3879166042172</v>
       </c>
       <c r="H23">
-        <v>14.89918186305172</v>
+        <v>15.76719424564658</v>
       </c>
       <c r="I23">
-        <v>20.17302701382899</v>
+        <v>20.82893551728771</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.9257723560033</v>
+        <v>31.55427532576183</v>
       </c>
       <c r="C24">
-        <v>14.95289003405701</v>
+        <v>27.93189637105768</v>
       </c>
       <c r="D24">
-        <v>6.391424054716765</v>
+        <v>9.05836025074861</v>
       </c>
       <c r="E24">
-        <v>19.74441416807204</v>
+        <v>38.06040116003736</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>37.65019656681444</v>
+        <v>57.57446179974768</v>
       </c>
       <c r="H24">
-        <v>14.79406768633027</v>
+        <v>14.36996931186308</v>
       </c>
       <c r="I24">
-        <v>20.10271361625842</v>
+        <v>19.11462382977629</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.58621826143823</v>
+        <v>28.38524963068608</v>
       </c>
       <c r="C25">
-        <v>13.55403441873346</v>
+        <v>25.0584381702393</v>
       </c>
       <c r="D25">
-        <v>6.147788141916061</v>
+        <v>8.106082968303072</v>
       </c>
       <c r="E25">
-        <v>17.8739712882458</v>
+        <v>33.76343358669272</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>36.01165168786137</v>
+        <v>51.29242713533381</v>
       </c>
       <c r="H25">
-        <v>14.70027621358755</v>
+        <v>13.27124752060399</v>
       </c>
       <c r="I25">
-        <v>20.05902517514695</v>
+        <v>17.78799534564591</v>
       </c>
       <c r="J25">
         <v>0</v>
